--- a/techniqo/data_new_ticker/IDFCFIRSTB.xlsx
+++ b/techniqo/data_new_ticker/IDFCFIRSTB.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1201"/>
+  <dimension ref="A1:G1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42421,6 +42421,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1202" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>30.65</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>32.15</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>38971266</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1203" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>34832190</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/IDFCFIRSTB.xlsx
+++ b/techniqo/data_new_ticker/IDFCFIRSTB.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1203"/>
+  <dimension ref="A1:G1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42471,6 +42471,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1204" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>44431441</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1205" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>31</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>38395650</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
